--- a/Statystyki_2018/Template/akrk.xlsx
+++ b/Statystyki_2018/Template/akrk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\myProjects\prv\statystyki\Statystyki_2018\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415F73D5-8421-4B87-8114-544310C418F0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DEC899-24CD-49BD-A364-85E767AF2B48}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" activeTab="2" xr2:uid="{1ABA86DE-19C1-42B8-B6CC-C27B015CBC0E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{1ABA86DE-19C1-42B8-B6CC-C27B015CBC0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Ruch spraw" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="62">
   <si>
     <t>Ruch spraw</t>
   </si>
@@ -229,12 +229,27 @@
       <t xml:space="preserve">  -  liczba spraw odroczonych</t>
     </r>
   </si>
+  <si>
+    <t>załatwienia merytoryczne K</t>
+  </si>
+  <si>
+    <t>załatwienia merytoryczne Ka</t>
+  </si>
+  <si>
+    <t>wyroki łączne K</t>
+  </si>
+  <si>
+    <t>wyroki łączne Ka</t>
+  </si>
+  <si>
+    <t>Tryby szybkie (335,338a,336,387 kpk)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +325,18 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -542,15 +569,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -585,6 +606,90 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -594,97 +699,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1007,290 +1044,290 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.109375" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="6"/>
-    </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="6"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="6"/>
-    </row>
-    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="1:14" ht="24" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="6"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="6"/>
-    </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="6"/>
-    </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:14" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="6"/>
-    </row>
-    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="12"/>
-    </row>
-    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="12"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1303,237 +1340,265 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB2D90A-4A5B-43B5-B929-9567DC208441}">
-  <dimension ref="A2:AJ4"/>
+  <dimension ref="A2:AO5"/>
   <sheetViews>
-    <sheetView topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2:AI3"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AK2" sqref="AK2:AK4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" customWidth="1"/>
-    <col min="27" max="27" width="12.140625" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" customWidth="1"/>
-    <col min="33" max="38" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="23" max="23" width="14.88671875" customWidth="1"/>
+    <col min="26" max="26" width="14.109375" customWidth="1"/>
+    <col min="27" max="27" width="12.109375" customWidth="1"/>
+    <col min="28" max="28" width="11.5546875" customWidth="1"/>
+    <col min="33" max="34" width="10.33203125" customWidth="1"/>
+    <col min="38" max="43" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="21" t="s">
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="22" t="s">
+      <c r="X2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="21" t="s">
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="24" t="s">
+      <c r="AA2" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="44" t="s">
+      <c r="AB2" s="38"/>
+      <c r="AC2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="AD2" s="43" t="s">
+      <c r="AD2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AE2" s="45" t="s">
+      <c r="AE2" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="25" t="s">
+      <c r="AF2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AG2" s="26" t="s">
+      <c r="AG2" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH2" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI2" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ2" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK2" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" s="26" t="s">
+      <c r="AM2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="AI2" s="26"/>
-      <c r="AJ2" s="26" t="s">
+      <c r="AN2" s="26"/>
+      <c r="AO2" s="26" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28" t="s">
+    <row r="3" spans="1:41" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="17" t="s">
+      <c r="J3" s="29"/>
+      <c r="K3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="L3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="17" t="s">
+      <c r="R3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="17" t="s">
+      <c r="V3" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="29"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="32" t="s">
+      <c r="W3" s="31"/>
+      <c r="X3" s="35"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AB3" s="32" t="s">
+      <c r="AB3" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="45"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-    </row>
-    <row r="4" spans="1:36" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="35" t="s">
+      <c r="AC3" s="22"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="50"/>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50"/>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="50"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+    </row>
+    <row r="4" spans="1:41" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="38" t="s">
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="Y4" s="39" t="s">
+      <c r="Y4" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="43"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="25"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="41" t="s">
+      <c r="Z4" s="37"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="39"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="51"/>
+      <c r="AK4" s="51"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AI4" s="42" t="s">
+      <c r="AN4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="AJ4" s="26"/>
+      <c r="AO4" s="26"/>
+    </row>
+    <row r="5" spans="1:41" x14ac:dyDescent="0.3">
+      <c r="AG5" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="AC2:AC4"/>
-    <mergeCell ref="AD2:AD4"/>
-    <mergeCell ref="AE2:AE4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="AA3:AA4"/>
-    <mergeCell ref="AB3:AB4"/>
-    <mergeCell ref="AH2:AI3"/>
+  <mergeCells count="41">
+    <mergeCell ref="AH2:AH4"/>
+    <mergeCell ref="AI2:AI4"/>
     <mergeCell ref="AJ2:AJ4"/>
+    <mergeCell ref="AK2:AK4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="AG2:AG4"/>
+    <mergeCell ref="AM2:AN3"/>
+    <mergeCell ref="AO2:AO4"/>
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
@@ -1547,17 +1612,23 @@
     <mergeCell ref="Z2:Z4"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AF2:AF4"/>
-    <mergeCell ref="AG2:AG4"/>
+    <mergeCell ref="AL2:AL4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="AD2:AD4"/>
+    <mergeCell ref="AE2:AE4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="AA3:AA4"/>
+    <mergeCell ref="AB3:AB4"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="E2:E4"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:V2"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1567,108 +1638,108 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831BD1F9-2DD1-4C79-866A-E26DDE59B9E7}">
   <dimension ref="A2:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="U2" sqref="S2:U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="17" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="45" t="s">
+      <c r="U2" s="23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="46" t="s">
+    <row r="3" spans="1:21" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="46" t="s">
+      <c r="H3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="46" t="s">
+      <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="46" t="s">
+      <c r="K3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="46" t="s">
+      <c r="L3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="46" t="s">
+      <c r="N3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="46" t="s">
+      <c r="O3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="46" t="s">
+      <c r="P3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="46" t="s">
+      <c r="Q3" s="18" t="s">
         <v>45</v>
       </c>
       <c r="R3" s="47"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="45"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="9">
